--- a/Matlab_Data/Simulation_Data.xlsx
+++ b/Matlab_Data/Simulation_Data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harvey\Desktop\Dropbox\Coding\Matlab\Matlab_Num_Tech_Major\Matlab_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harvey\Dropbox\Coding\Matlab\Matlab_Num_Tech_Major\Matlab_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="28800" windowHeight="17460"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="VaR" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -103,11 +103,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -115,13 +115,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -434,13 +434,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18:T18"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25">
       <c r="H1" t="s">
         <v>4</v>
       </c>
@@ -448,7 +448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -474,7 +474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -551,7 +551,7 @@
         <v>-1.9144980094814201E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -628,7 +628,7 @@
         <v>-2.2515313824092199E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -705,7 +705,7 @@
         <v>-1.1266269518103399E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -782,7 +782,7 @@
         <v>-9.4239045753447704E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -859,7 +859,7 @@
         <v>1.3270759754693099E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -936,7 +936,7 @@
         <v>-5.1407915698627807E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>-6.79457541423285E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>3.3698850129661199E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>-1.6614503885925699E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>-7.1418712690633004E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>-1.1404470391564302E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>4.8282719602141498E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>-7.4128071034358098E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>-9.6380842193354004E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:27">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1629,12 +1629,12 @@
         <v>-3.6142048471490499E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:27">
       <c r="D22">
         <v>9.4556000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:27">
       <c r="D23">
         <v>9.4116999999999997</v>
       </c>
@@ -1643,13 +1643,13 @@
         <v>4.6535624306112133E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:27">
       <c r="E24">
         <f>EXP(E23)+D23</f>
         <v>10.416364407067798</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:27">
       <c r="L25">
         <v>6.5632999999999999</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>1.0014557414171912</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:27">
       <c r="S27" t="s">
         <v>6</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:27">
       <c r="S29">
         <f>EXP(Q3)*L$25</f>
         <v>6.5831999999999997</v>
@@ -1709,7 +1709,7 @@
         <v>9.5804406965392559</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:27">
       <c r="S30">
         <f t="shared" ref="S30:S43" si="16">EXP(Q4)*L$25</f>
         <v>6.5630009068538104</v>
@@ -1743,7 +1743,7 @@
         <v>9.5772123123643311</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:27">
       <c r="S31">
         <f t="shared" si="16"/>
         <v>6.5555232238071373</v>
@@ -1777,7 +1777,7 @@
         <v>9.4912642330628785</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:27">
       <c r="S32">
         <f t="shared" si="16"/>
         <v>6.5726831302945961</v>
@@ -1811,7 +1811,7 @@
         <v>9.5087667235850688</v>
       </c>
     </row>
-    <row r="33" spans="19:27" x14ac:dyDescent="0.4">
+    <row r="33" spans="19:27">
       <c r="S33">
         <f t="shared" si="16"/>
         <v>6.5436634277469814</v>
@@ -1845,7 +1845,7 @@
         <v>9.6000739182147772</v>
       </c>
     </row>
-    <row r="34" spans="19:27" x14ac:dyDescent="0.4">
+    <row r="34" spans="19:27">
       <c r="S34">
         <f t="shared" si="16"/>
         <v>6.5622002513404833</v>
@@ -1879,7 +1879,7 @@
         <v>9.5495811900958216</v>
       </c>
     </row>
-    <row r="35" spans="19:27" x14ac:dyDescent="0.4">
+    <row r="35" spans="19:27">
       <c r="S35">
         <f t="shared" si="16"/>
         <v>6.5710995246583481</v>
@@ -1913,7 +1913,7 @@
         <v>9.5338012988642351</v>
       </c>
     </row>
-    <row r="36" spans="19:27" x14ac:dyDescent="0.4">
+    <row r="36" spans="19:27">
       <c r="S36">
         <f t="shared" si="16"/>
         <v>6.5543112303127131</v>
@@ -1947,7 +1947,7 @@
         <v>9.6312014161228845</v>
       </c>
     </row>
-    <row r="37" spans="19:27" x14ac:dyDescent="0.4">
+    <row r="37" spans="19:27">
       <c r="S37">
         <f t="shared" si="16"/>
         <v>6.5627999390476193</v>
@@ -1981,7 +1981,7 @@
         <v>9.5828653110231077</v>
       </c>
     </row>
-    <row r="38" spans="19:27" x14ac:dyDescent="0.4">
+    <row r="38" spans="19:27">
       <c r="S38">
         <f t="shared" si="16"/>
         <v>6.5632999999999999</v>
@@ -2015,7 +2015,7 @@
         <v>9.5304908240827206</v>
       </c>
     </row>
-    <row r="39" spans="19:27" x14ac:dyDescent="0.4">
+    <row r="39" spans="19:27">
       <c r="S39">
         <f t="shared" si="16"/>
         <v>6.5870046952148726</v>
@@ -2049,7 +2049,7 @@
         <v>9.4899526226905575</v>
       </c>
     </row>
-    <row r="40" spans="19:27" x14ac:dyDescent="0.4">
+    <row r="40" spans="19:27">
       <c r="S40">
         <f t="shared" si="16"/>
         <v>6.5740632658639182</v>
@@ -2083,7 +2083,7 @@
         <v>9.6452576818003237</v>
       </c>
     </row>
-    <row r="41" spans="19:27" x14ac:dyDescent="0.4">
+    <row r="41" spans="19:27">
       <c r="S41">
         <f t="shared" si="16"/>
         <v>6.5486739846888495</v>
@@ -2117,7 +2117,7 @@
         <v>9.5279090223664138</v>
       </c>
     </row>
-    <row r="42" spans="19:27" x14ac:dyDescent="0.4">
+    <row r="42" spans="19:27">
       <c r="S42">
         <f t="shared" si="16"/>
         <v>6.5734713300312988</v>
@@ -2151,7 +2151,7 @@
         <v>9.5067303573952984</v>
       </c>
     </row>
-    <row r="43" spans="19:27" x14ac:dyDescent="0.4">
+    <row r="43" spans="19:27">
       <c r="S43">
         <f t="shared" si="16"/>
         <v>6.559715673543689</v>
@@ -2199,15 +2199,15 @@
   <dimension ref="A1:AE41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="12" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:31">
       <c r="W2">
         <v>6.5586033113162303</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>9.5629263907458899</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:31">
       <c r="A3">
         <v>6.5831999999999997</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>9.5348436291753806</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:31">
       <c r="A4">
         <v>6.5630009068538104</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>9.6481356182149192</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:31">
       <c r="A5">
         <v>6.5555232238071373</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>9.7273206857786398</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:31">
       <c r="A6">
         <v>6.5726831302945961</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>9.5094601700440506</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:31">
       <c r="A7">
         <v>6.5436634277469814</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>9.6576092126913498</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:31">
       <c r="A8">
         <v>6.5622002513404833</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>9.6360229306575906</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:31">
       <c r="A9">
         <v>6.5710995246583481</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>9.6199541764844998</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:31">
       <c r="A10">
         <v>6.5543112303127131</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>9.4712721487448501</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:31">
       <c r="A11">
         <v>6.5627999390476193</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>9.5245205474560297</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:31">
       <c r="A12">
         <v>6.5632999999999999</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>9.7293302499610306</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:31">
       <c r="A13">
         <v>6.5870046952148726</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>9.5797888470800707</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:31">
       <c r="A14">
         <v>6.5740632658639182</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>9.5699970561527206</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:31">
       <c r="A15">
         <v>6.5486739846888495</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>9.52966757934289</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:31">
       <c r="A16">
         <v>6.5734713300312988</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>9.5730024232299993</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>6.559715673543689</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>5.3667668493848561E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15">
       <c r="K19">
         <f>AVERAGE(K3:K17)</f>
         <v>1.9888686016194791E-4</v>
@@ -3272,7 +3272,7 @@
         <v>9.5082596940216316E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15">
       <c r="A20">
         <f>AVERAGE(A3:A17)</f>
         <v>6.5649807055602878</v>
@@ -3290,7 +3290,7 @@
         <v>9.5894064089511311</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15">
       <c r="A21">
         <f>_xlfn.STDEV.P(A3:A17)</f>
         <v>1.1658811992964806E-2</v>
@@ -3311,12 +3311,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>6.5586033113162303</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>6.5576954880268703</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>5.0861443452087001E-3</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>5.9096325678490297E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>7.2777128013599697</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>7.3788117501188903</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>9.6101464694670398</v>
       </c>
@@ -3504,12 +3504,12 @@
         <v>9.5523843502915202</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15">
       <c r="A38">
         <v>6.5580062411422704</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>6.5967657076018904</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15">
       <c r="A39">
         <v>6.1274596578206096E-3</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>5.5772544544819402E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15">
       <c r="A40">
         <v>7.3700769508406596</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>7.2503196497953502</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15">
       <c r="A41">
         <v>9.5629263907458899</v>
       </c>
@@ -3712,12 +3712,12 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>42517</v>
       </c>
@@ -3758,13 +3758,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="F25" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>6.5586033113162303</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>9.6372000000000018</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>6.5835280997453003</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>9.4927243556219647</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>6.5813428899818502</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>9.546327728288583</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>6.5758869417999799</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>9.6173320659169086</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>6.5785864869670103</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>9.6343776895618607</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>6.5754915568301104</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>9.5450263383724483</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>6.5653558764640101</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>9.6786997035458437</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>6.5621257219406104</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>9.5579245542814082</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>6.5795493270485101</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>9.5699538757368519</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>6.5584601136476097</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>9.4649592445432784</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>6.5536969473984499</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>9.6430184993586998</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>6.5867854016445904</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>9.5097472864423196</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>6.5603805832360802</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>9.6378677004692932</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14">
       <c r="A15">
         <v>6.5694512386240804</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>9.6685082846691923</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14">
       <c r="A16">
         <v>6.5576954880268703</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>9.6374288074582957</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14">
       <c r="A19">
         <f>A2-K2</f>
         <v>-2.4596688683769408E-2</v>
@@ -4402,7 +4402,7 @@
         <v>-5.6759303460745869E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14">
       <c r="A20">
         <f t="shared" ref="A20:A33" si="2">A3-K3</f>
         <v>2.0527192891489854E-2</v>
@@ -4448,7 +4448,7 @@
         <v>8.4487956742366421E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14">
       <c r="A21">
         <f t="shared" si="2"/>
         <v>2.5819666174712985E-2</v>
@@ -4494,7 +4494,7 @@
         <v>-5.5063495225704528E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14">
       <c r="A22">
         <f t="shared" si="2"/>
         <v>3.2038115053838467E-3</v>
@@ -4540,7 +4540,7 @@
         <v>-0.10856534233183979</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14">
       <c r="A23">
         <f t="shared" si="2"/>
         <v>3.4923059220028918E-2</v>
@@ -4586,7 +4586,7 @@
         <v>-3.4303771347083512E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14">
       <c r="A24">
         <f t="shared" si="2"/>
         <v>1.3291305489627092E-2</v>
@@ -4632,7 +4632,7 @@
         <v>4.5548517233733321E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14">
       <c r="A25">
         <f t="shared" si="2"/>
         <v>-5.7436481943380358E-3</v>
@@ -4678,7 +4678,7 @@
         <v>-0.14489840468160864</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14">
       <c r="A26">
         <f t="shared" si="2"/>
         <v>7.8144916278972687E-3</v>
@@ -4724,7 +4724,7 @@
         <v>7.3276861841476304E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14">
       <c r="A27">
         <f t="shared" si="2"/>
         <v>1.6749388000890875E-2</v>
@@ -4770,7 +4770,7 @@
         <v>1.2911435286255823E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14">
       <c r="A28">
         <f t="shared" si="2"/>
         <v>-4.8398863523901881E-3</v>
@@ -4816,7 +4816,7 @@
         <v>6.553157953944222E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14">
       <c r="A29">
         <f t="shared" si="2"/>
         <v>-3.3307747816422761E-2</v>
@@ -4862,7 +4862,7 @@
         <v>-0.15306587666814231</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14">
       <c r="A30">
         <f t="shared" si="2"/>
         <v>1.2722135780672161E-2</v>
@@ -4908,7 +4908,7 @@
         <v>0.13551039535800413</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14">
       <c r="A31">
         <f t="shared" si="2"/>
         <v>1.1706598547230662E-2</v>
@@ -4954,7 +4954,7 @@
         <v>-0.1099586781028794</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14">
       <c r="A32">
         <f t="shared" si="2"/>
         <v>-4.0200914072183735E-3</v>
@@ -5000,7 +5000,7 @@
         <v>-0.16177792727389395</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14">
       <c r="A33">
         <f t="shared" si="2"/>
         <v>-2.0201855168187066E-3</v>
@@ -5056,24 +5056,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9">
       <c r="A2">
-        <v>6.5831999999999997</v>
+        <v>0.30274240595007385</v>
       </c>
       <c r="B2">
-        <v>5.9985802413136141E-2</v>
+        <v>0.81315952223306454</v>
       </c>
       <c r="C2">
-        <v>7.3380000000000001</v>
+        <v>0.58634360331042412</v>
       </c>
       <c r="D2">
-        <v>9.6372000000000018</v>
+        <v>0.39925193396403991</v>
       </c>
       <c r="F2">
         <v>0.7</v>
@@ -5088,236 +5088,240 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9">
       <c r="A3">
-        <v>6.5630009068538104</v>
+        <v>-4.5571581569481268E-3</v>
       </c>
       <c r="B3">
-        <v>5.9275128228201183E-2</v>
+        <v>-0.37865173261799612</v>
       </c>
       <c r="C3">
-        <v>7.2852578781684372</v>
+        <v>-0.13500523661613695</v>
       </c>
       <c r="D3">
-        <v>9.4927243556219647</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+        <v>-1.1112442775620401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
-        <v>6.5555232238071373</v>
+        <v>-0.11855906541504702</v>
       </c>
       <c r="B4">
-        <v>5.8865820612410809E-2</v>
+        <v>-1.0715685535719999</v>
       </c>
       <c r="C4">
-        <v>7.3236707577680447</v>
+        <v>0.39087820197964973</v>
       </c>
       <c r="D4">
-        <v>9.546327728288583</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+        <v>-0.54815411882889187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
-        <v>6.5726831302945961</v>
+        <v>0.14286150944917697</v>
       </c>
       <c r="B5">
-        <v>5.9136035789281477E-2</v>
+        <v>-0.61358313296011602</v>
       </c>
       <c r="C5">
-        <v>7.2807216085798165</v>
+        <v>-0.19729105459909135</v>
       </c>
       <c r="D5">
-        <v>9.6173320659169086</v>
+        <v>0.19288035280684568</v>
       </c>
       <c r="F5">
-        <v>-1.96</v>
+        <v>-1.64</v>
       </c>
       <c r="G5">
         <f t="array" ref="G5">MMULT(F2:I2,TRANSPOSE(A18:D18))</f>
-        <v>1.949858398940164E-2</v>
+        <v>0.33396222035088741</v>
       </c>
       <c r="H5">
         <v>6.2919999999999998</v>
       </c>
       <c r="I5">
         <f>F5*G5*H5</f>
-        <v>-0.24046277730417762</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+        <v>-3.4461160763343646</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
-        <v>6.5436634277469814</v>
+        <v>-0.29963594623532153</v>
       </c>
       <c r="B6">
-        <v>5.8226483556862031E-2</v>
+        <v>-2.1636017382947514</v>
       </c>
       <c r="C6">
-        <v>7.4143285796003973</v>
+        <v>1.62115326488248</v>
       </c>
       <c r="D6">
-        <v>9.6343776895618607</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+        <v>0.36996205947859018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
-        <v>6.5622002513404833</v>
+        <v>-1.6757436151482175E-2</v>
       </c>
       <c r="B7">
-        <v>6.0075283957570648E-2</v>
+        <v>0.96221957775579625</v>
       </c>
       <c r="C7">
-        <v>7.2858128566259719</v>
+        <v>-0.12738769816746931</v>
       </c>
       <c r="D7">
-        <v>9.5450263383724483</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+        <v>-0.56178740972701036</v>
+      </c>
+      <c r="I7">
+        <f>I5/100</f>
+        <v>-3.4461160763343643E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
-        <v>6.5710995246583481</v>
+        <v>0.11876485956561211</v>
       </c>
       <c r="B8">
-        <v>5.9389364075864613E-2</v>
+        <v>-0.18611581772924879</v>
       </c>
       <c r="C8">
-        <v>7.3059651258587381</v>
+        <v>0.14882651053937934</v>
       </c>
       <c r="D8">
-        <v>9.6786997035458437</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+        <v>0.82894734589222807</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
-        <v>6.5543112303127131</v>
+        <v>-0.13704890221837296</v>
       </c>
       <c r="B9">
-        <v>5.9289400149031266E-2</v>
+        <v>-0.35457721202680759</v>
       </c>
       <c r="C9">
-        <v>7.3081969519956047</v>
+        <v>0.17936984435937831</v>
       </c>
       <c r="D9">
-        <v>9.5579245542814082</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+        <v>-0.42674839987468793</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
-        <v>6.5627999390476193</v>
+        <v>-7.6193378832245529E-3</v>
       </c>
       <c r="B10">
-        <v>5.9561179659749525E-2</v>
+        <v>0.10277013096802179</v>
       </c>
       <c r="C10">
-        <v>7.2445622149706468</v>
+        <v>-0.69517417680091675</v>
       </c>
       <c r="D10">
-        <v>9.5699538757368519</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+        <v>-0.30097048796116077</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
-        <v>6.5632999999999999</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>5.943888318236993E-2</v>
+        <v>-0.10277013096802179</v>
       </c>
       <c r="C11">
-        <v>7.2532481031580343</v>
+        <v>-0.57535071331182852</v>
       </c>
       <c r="D11">
-        <v>9.4649592445432784</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+        <v>-1.404161192058595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
-        <v>6.5870046952148726</v>
+        <v>0.36051972086299511</v>
       </c>
       <c r="B12">
-        <v>5.9093989530753441E-2</v>
+        <v>-0.68470932985773558</v>
       </c>
       <c r="C12">
-        <v>7.3480625702637168</v>
+        <v>0.72337926947707576</v>
       </c>
       <c r="D12">
-        <v>9.6430184993586998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+        <v>0.45960912893598938</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
-        <v>6.5740632658639182</v>
+        <v>0.16385735941544244</v>
       </c>
       <c r="B13">
-        <v>5.9421599999999963E-2</v>
+        <v>-0.13185159190278739</v>
       </c>
       <c r="C13">
-        <v>7.2527214186781412</v>
+        <v>-0.58261233728438278</v>
       </c>
       <c r="D13">
-        <v>9.5097472864423196</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+        <v>-0.93207879114873826</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
-        <v>6.5486739846888495</v>
+        <v>-0.22309411831489268</v>
       </c>
       <c r="B14">
-        <v>5.9449533502968645E-2</v>
+        <v>-8.4853632583836713E-2</v>
       </c>
       <c r="C14">
-        <v>7.3123675598176749</v>
+        <v>0.23642110160491114</v>
       </c>
       <c r="D14">
-        <v>9.6378677004692932</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+        <v>0.40618005976815752</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
-        <v>6.5734713300312988</v>
+        <v>0.1548528448625186</v>
       </c>
       <c r="B15">
-        <v>5.8798481418600272E-2</v>
+        <v>-1.1860284194786352</v>
       </c>
       <c r="C15">
-        <v>7.3030735399686932</v>
+        <v>0.10924025173140173</v>
       </c>
       <c r="D15">
-        <v>9.6685082846691923</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+        <v>0.72359447197367643</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
-        <v>6.559715673543689</v>
+        <v>-5.4626568078686155E-2</v>
       </c>
       <c r="B16">
-        <v>5.9164932709745162E-2</v>
+        <v>-0.56472990478280138</v>
       </c>
       <c r="C16">
-        <v>7.3057197792125512</v>
+        <v>0.14546828528603228</v>
       </c>
       <c r="D16">
-        <v>9.6374288074582957</v>
+        <v>0.40162611673655313</v>
       </c>
       <c r="E16">
         <f>0.7*A16+0.1*B16+0.1*C16+0.1*D16</f>
-        <v>6.2920323234186419</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-4.0002147931101906E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <f>_xlfn.STDEV.S(A2:A16)</f>
-        <v>1.2068016928788909E-2</v>
+        <v>0.1838074706899186</v>
       </c>
       <c r="B18">
         <f t="shared" ref="B18:D18" si="0">_xlfn.STDEV.S(B2:B16)</f>
-        <v>4.5336987090762701E-4</v>
+        <v>0.76590517105436173</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>4.2856887081913639E-2</v>
+        <v>0.58527084189283873</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>6.7199464439672757E-2</v>
+        <v>0.70179389573224349</v>
       </c>
     </row>
   </sheetData>

--- a/Matlab_Data/Simulation_Data.xlsx
+++ b/Matlab_Data/Simulation_Data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harvey\Dropbox\Coding\Matlab\Matlab_Num_Tech_Major\Matlab_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveyhuang/Desktop/Dropbox/Coding/Matlab/Matlab_Num_Tech_Major/Matlab_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,13 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="VaR" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -102,8 +102,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,7 +154,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -435,12 +435,12 @@
   <dimension ref="A1:AA43"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:J17"/>
+      <selection activeCell="Q3" sqref="Q3:T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="H1" t="s">
         <v>4</v>
       </c>
@@ -448,7 +448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -474,7 +474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -551,7 +551,7 @@
         <v>-1.9144980094814201E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -628,7 +628,7 @@
         <v>-2.2515313824092199E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -705,7 +705,7 @@
         <v>-1.1266269518103399E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -782,7 +782,7 @@
         <v>-9.4239045753447704E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -859,7 +859,7 @@
         <v>1.3270759754693099E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -936,7 +936,7 @@
         <v>-5.1407915698627807E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>-6.79457541423285E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>3.3698850129661199E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>-1.6614503885925699E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>-7.1418712690633004E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>-1.1404470391564302E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>4.8282719602141498E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>-7.4128071034358098E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>-9.6380842193354004E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1629,12 +1629,12 @@
         <v>-3.6142048471490499E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D22">
         <v>9.4556000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D23">
         <v>9.4116999999999997</v>
       </c>
@@ -1643,13 +1643,13 @@
         <v>4.6535624306112133E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="E24">
         <f>EXP(E23)+D23</f>
         <v>10.416364407067798</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="L25">
         <v>6.5632999999999999</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>1.0014557414171912</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="S27" t="s">
         <v>6</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="S29">
         <f>EXP(Q3)*L$25</f>
         <v>6.5831999999999997</v>
@@ -1709,7 +1709,7 @@
         <v>9.5804406965392559</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="S30">
         <f t="shared" ref="S30:S43" si="16">EXP(Q4)*L$25</f>
         <v>6.5630009068538104</v>
@@ -1743,7 +1743,7 @@
         <v>9.5772123123643311</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="S31">
         <f t="shared" si="16"/>
         <v>6.5555232238071373</v>
@@ -1777,7 +1777,7 @@
         <v>9.4912642330628785</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="S32">
         <f t="shared" si="16"/>
         <v>6.5726831302945961</v>
@@ -1811,7 +1811,7 @@
         <v>9.5087667235850688</v>
       </c>
     </row>
-    <row r="33" spans="19:27">
+    <row r="33" spans="19:27" x14ac:dyDescent="0.2">
       <c r="S33">
         <f t="shared" si="16"/>
         <v>6.5436634277469814</v>
@@ -1845,7 +1845,7 @@
         <v>9.6000739182147772</v>
       </c>
     </row>
-    <row r="34" spans="19:27">
+    <row r="34" spans="19:27" x14ac:dyDescent="0.2">
       <c r="S34">
         <f t="shared" si="16"/>
         <v>6.5622002513404833</v>
@@ -1879,7 +1879,7 @@
         <v>9.5495811900958216</v>
       </c>
     </row>
-    <row r="35" spans="19:27">
+    <row r="35" spans="19:27" x14ac:dyDescent="0.2">
       <c r="S35">
         <f t="shared" si="16"/>
         <v>6.5710995246583481</v>
@@ -1913,7 +1913,7 @@
         <v>9.5338012988642351</v>
       </c>
     </row>
-    <row r="36" spans="19:27">
+    <row r="36" spans="19:27" x14ac:dyDescent="0.2">
       <c r="S36">
         <f t="shared" si="16"/>
         <v>6.5543112303127131</v>
@@ -1947,7 +1947,7 @@
         <v>9.6312014161228845</v>
       </c>
     </row>
-    <row r="37" spans="19:27">
+    <row r="37" spans="19:27" x14ac:dyDescent="0.2">
       <c r="S37">
         <f t="shared" si="16"/>
         <v>6.5627999390476193</v>
@@ -1981,7 +1981,7 @@
         <v>9.5828653110231077</v>
       </c>
     </row>
-    <row r="38" spans="19:27">
+    <row r="38" spans="19:27" x14ac:dyDescent="0.2">
       <c r="S38">
         <f t="shared" si="16"/>
         <v>6.5632999999999999</v>
@@ -2015,7 +2015,7 @@
         <v>9.5304908240827206</v>
       </c>
     </row>
-    <row r="39" spans="19:27">
+    <row r="39" spans="19:27" x14ac:dyDescent="0.2">
       <c r="S39">
         <f t="shared" si="16"/>
         <v>6.5870046952148726</v>
@@ -2049,7 +2049,7 @@
         <v>9.4899526226905575</v>
       </c>
     </row>
-    <row r="40" spans="19:27">
+    <row r="40" spans="19:27" x14ac:dyDescent="0.2">
       <c r="S40">
         <f t="shared" si="16"/>
         <v>6.5740632658639182</v>
@@ -2083,7 +2083,7 @@
         <v>9.6452576818003237</v>
       </c>
     </row>
-    <row r="41" spans="19:27">
+    <row r="41" spans="19:27" x14ac:dyDescent="0.2">
       <c r="S41">
         <f t="shared" si="16"/>
         <v>6.5486739846888495</v>
@@ -2117,7 +2117,7 @@
         <v>9.5279090223664138</v>
       </c>
     </row>
-    <row r="42" spans="19:27">
+    <row r="42" spans="19:27" x14ac:dyDescent="0.2">
       <c r="S42">
         <f t="shared" si="16"/>
         <v>6.5734713300312988</v>
@@ -2151,7 +2151,7 @@
         <v>9.5067303573952984</v>
       </c>
     </row>
-    <row r="43" spans="19:27">
+    <row r="43" spans="19:27" x14ac:dyDescent="0.2">
       <c r="S43">
         <f t="shared" si="16"/>
         <v>6.559715673543689</v>
@@ -2202,12 +2202,12 @@
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="12" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="W2">
         <v>6.5586033113162303</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>9.5629263907458899</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6.5831999999999997</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>9.5348436291753806</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6.5630009068538104</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>9.6481356182149192</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6.5555232238071373</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>9.7273206857786398</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6.5726831302945961</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>9.5094601700440506</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6.5436634277469814</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>9.6576092126913498</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6.5622002513404833</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>9.6360229306575906</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6.5710995246583481</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>9.6199541764844998</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6.5543112303127131</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>9.4712721487448501</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6.5627999390476193</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>9.5245205474560297</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6.5632999999999999</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>9.7293302499610306</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6.5870046952148726</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>9.5797888470800707</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6.5740632658639182</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>9.5699970561527206</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6.5486739846888495</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>9.52966757934289</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6.5734713300312988</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>9.5730024232299993</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>6.559715673543689</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>5.3667668493848561E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="K19">
         <f>AVERAGE(K3:K17)</f>
         <v>1.9888686016194791E-4</v>
@@ -3272,7 +3272,7 @@
         <v>9.5082596940216316E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <f>AVERAGE(A3:A17)</f>
         <v>6.5649807055602878</v>
@@ -3290,7 +3290,7 @@
         <v>9.5894064089511311</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <f>_xlfn.STDEV.P(A3:A17)</f>
         <v>1.1658811992964806E-2</v>
@@ -3311,12 +3311,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6.5586033113162303</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>6.5576954880268703</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5.0861443452087001E-3</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>5.9096325678490297E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>7.2777128013599697</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>7.3788117501188903</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>9.6101464694670398</v>
       </c>
@@ -3504,12 +3504,12 @@
         <v>9.5523843502915202</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>6.5580062411422704</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>6.5967657076018904</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>6.1274596578206096E-3</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>5.5772544544819402E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>7.3700769508406596</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>7.2503196497953502</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>9.5629263907458899</v>
       </c>
@@ -3712,12 +3712,12 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>42517</v>
       </c>
@@ -3758,13 +3758,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>6.5586033113162303</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>9.6372000000000018</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6.5835280997453003</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>9.4927243556219647</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6.5813428899818502</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>9.546327728288583</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6.5758869417999799</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>9.6173320659169086</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6.5785864869670103</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>9.6343776895618607</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6.5754915568301104</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>9.5450263383724483</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6.5653558764640101</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>9.6786997035458437</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6.5621257219406104</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>9.5579245542814082</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6.5795493270485101</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>9.5699538757368519</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6.5584601136476097</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>9.4649592445432784</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6.5536969473984499</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>9.6430184993586998</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6.5867854016445904</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>9.5097472864423196</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6.5603805832360802</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>9.6378677004692932</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6.5694512386240804</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>9.6685082846691923</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6.5576954880268703</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>9.6374288074582957</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <f>A2-K2</f>
         <v>-2.4596688683769408E-2</v>
@@ -4402,7 +4402,7 @@
         <v>-5.6759303460745869E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" ref="A20:A33" si="2">A3-K3</f>
         <v>2.0527192891489854E-2</v>
@@ -4448,7 +4448,7 @@
         <v>8.4487956742366421E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="2"/>
         <v>2.5819666174712985E-2</v>
@@ -4494,7 +4494,7 @@
         <v>-5.5063495225704528E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="2"/>
         <v>3.2038115053838467E-3</v>
@@ -4540,7 +4540,7 @@
         <v>-0.10856534233183979</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="2"/>
         <v>3.4923059220028918E-2</v>
@@ -4586,7 +4586,7 @@
         <v>-3.4303771347083512E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="2"/>
         <v>1.3291305489627092E-2</v>
@@ -4632,7 +4632,7 @@
         <v>4.5548517233733321E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="2"/>
         <v>-5.7436481943380358E-3</v>
@@ -4678,7 +4678,7 @@
         <v>-0.14489840468160864</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="2"/>
         <v>7.8144916278972687E-3</v>
@@ -4724,7 +4724,7 @@
         <v>7.3276861841476304E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="2"/>
         <v>1.6749388000890875E-2</v>
@@ -4770,7 +4770,7 @@
         <v>1.2911435286255823E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="2"/>
         <v>-4.8398863523901881E-3</v>
@@ -4816,7 +4816,7 @@
         <v>6.553157953944222E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="2"/>
         <v>-3.3307747816422761E-2</v>
@@ -4862,7 +4862,7 @@
         <v>-0.15306587666814231</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="2"/>
         <v>1.2722135780672161E-2</v>
@@ -4908,7 +4908,7 @@
         <v>0.13551039535800413</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="2"/>
         <v>1.1706598547230662E-2</v>
@@ -4954,7 +4954,7 @@
         <v>-0.1099586781028794</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="2"/>
         <v>-4.0200914072183735E-3</v>
@@ -5000,7 +5000,7 @@
         <v>-0.16177792727389395</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="2"/>
         <v>-2.0201855168187066E-3</v>
@@ -5054,26 +5054,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I18"/>
+  <dimension ref="A2:U29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.30274240595007385</v>
+        <v>3.0274240595007385E-3</v>
       </c>
       <c r="B2">
-        <v>0.81315952223306454</v>
+        <v>8.1315952223306454E-3</v>
       </c>
       <c r="C2">
-        <v>0.58634360331042412</v>
+        <v>5.8634360331042412E-3</v>
       </c>
       <c r="D2">
-        <v>0.39925193396403991</v>
+        <v>3.9925193396403991E-3</v>
       </c>
       <c r="F2">
         <v>0.7</v>
@@ -5088,240 +5093,580 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>-4.5571581569481268E-3</v>
+        <v>-4.5571581569481268E-5</v>
       </c>
       <c r="B3">
-        <v>-0.37865173261799612</v>
+        <v>-3.7865173261799612E-3</v>
       </c>
       <c r="C3">
-        <v>-0.13500523661613695</v>
+        <v>-1.3500523661613695E-3</v>
       </c>
       <c r="D3">
-        <v>-1.1112442775620401</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>-1.1112442775620401E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>-0.11855906541504702</v>
+        <v>-1.1855906541504702E-3</v>
       </c>
       <c r="B4">
-        <v>-1.0715685535719999</v>
+        <v>-1.0715685535719999E-2</v>
       </c>
       <c r="C4">
-        <v>0.39087820197964973</v>
+        <v>3.9087820197964973E-3</v>
       </c>
       <c r="D4">
-        <v>-0.54815411882889187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>-5.4815411882889187E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0.14286150944917697</v>
+        <v>1.4286150944917697E-3</v>
       </c>
       <c r="B5">
-        <v>-0.61358313296011602</v>
+        <v>-6.1358313296011602E-3</v>
       </c>
       <c r="C5">
-        <v>-0.19729105459909135</v>
+        <v>-1.9729105459909135E-3</v>
       </c>
       <c r="D5">
-        <v>0.19288035280684568</v>
+        <v>1.9288035280684568E-3</v>
       </c>
       <c r="F5">
-        <v>-1.64</v>
+        <v>1.28</v>
       </c>
       <c r="G5">
         <f t="array" ref="G5">MMULT(F2:I2,TRANSPOSE(A18:D18))</f>
-        <v>0.33396222035088741</v>
+        <v>3.3396222035088742E-3</v>
       </c>
       <c r="H5">
         <v>6.2919999999999998</v>
       </c>
       <c r="I5">
         <f>F5*G5*H5</f>
-        <v>-3.4461160763343646</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>2.689651571773163E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>-0.29963594623532153</v>
+        <v>-2.9963594623532153E-3</v>
       </c>
       <c r="B6">
-        <v>-2.1636017382947514</v>
+        <v>-2.1636017382947514E-2</v>
       </c>
       <c r="C6">
-        <v>1.62115326488248</v>
+        <v>1.62115326488248E-2</v>
       </c>
       <c r="D6">
-        <v>0.36996205947859018</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>3.6996205947859018E-3</v>
+      </c>
+      <c r="F6">
+        <v>1.28</v>
+      </c>
+      <c r="G6">
+        <f t="array" ref="G6">MMULT(F2:I2,TRANSPOSE(A19:D19))</f>
+        <v>5.0094333052633111E-2</v>
+      </c>
+      <c r="H6">
+        <v>6.2919999999999998</v>
+      </c>
+      <c r="I6">
+        <f>F6*G6*H6</f>
+        <v>0.40344773576597448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>-1.6757436151482175E-2</v>
+        <v>-1.6757436151482175E-4</v>
       </c>
       <c r="B7">
-        <v>0.96221957775579625</v>
+        <v>9.6221957775579625E-3</v>
       </c>
       <c r="C7">
-        <v>-0.12738769816746931</v>
+        <v>-1.2738769816746931E-3</v>
       </c>
       <c r="D7">
-        <v>-0.56178740972701036</v>
-      </c>
-      <c r="I7">
-        <f>I5/100</f>
-        <v>-3.4461160763343643E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>-5.6178740972701036E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>0.11876485956561211</v>
+        <v>1.1876485956561211E-3</v>
       </c>
       <c r="B8">
-        <v>-0.18611581772924879</v>
+        <v>-1.8611581772924879E-3</v>
       </c>
       <c r="C8">
-        <v>0.14882651053937934</v>
+        <v>1.4882651053937934E-3</v>
       </c>
       <c r="D8">
-        <v>0.82894734589222807</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>8.2894734589222807E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>-0.13704890221837296</v>
+        <v>-1.3704890221837296E-3</v>
       </c>
       <c r="B9">
-        <v>-0.35457721202680759</v>
+        <v>-3.5457721202680759E-3</v>
       </c>
       <c r="C9">
-        <v>0.17936984435937831</v>
+        <v>1.7936984435937831E-3</v>
       </c>
       <c r="D9">
-        <v>-0.42674839987468793</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>-4.2674839987468793E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>-7.6193378832245529E-3</v>
+        <v>-7.6193378832245529E-5</v>
       </c>
       <c r="B10">
-        <v>0.10277013096802179</v>
+        <v>1.0277013096802179E-3</v>
       </c>
       <c r="C10">
-        <v>-0.69517417680091675</v>
+        <v>-6.9517417680091675E-3</v>
       </c>
       <c r="D10">
-        <v>-0.30097048796116077</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>-3.0097048796116077E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
       <c r="B11">
-        <v>-0.10277013096802179</v>
+        <v>-1.0277013096802179E-3</v>
       </c>
       <c r="C11">
-        <v>-0.57535071331182852</v>
+        <v>-5.7535071331182852E-3</v>
       </c>
       <c r="D11">
-        <v>-1.404161192058595</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>-1.404161192058595E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>0.36051972086299511</v>
+        <v>3.6051972086299511E-3</v>
       </c>
       <c r="B12">
-        <v>-0.68470932985773558</v>
+        <v>-6.8470932985773558E-3</v>
       </c>
       <c r="C12">
-        <v>0.72337926947707576</v>
+        <v>7.2337926947707576E-3</v>
       </c>
       <c r="D12">
-        <v>0.45960912893598938</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>4.5960912893598938E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>0.16385735941544244</v>
+        <v>1.6385735941544244E-3</v>
       </c>
       <c r="B13">
-        <v>-0.13185159190278739</v>
+        <v>-1.3185159190278739E-3</v>
       </c>
       <c r="C13">
-        <v>-0.58261233728438278</v>
+        <v>-5.8261233728438278E-3</v>
       </c>
       <c r="D13">
-        <v>-0.93207879114873826</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>-9.3207879114873826E-3</v>
+      </c>
+      <c r="K13">
+        <v>4.4043999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>-0.22309411831489268</v>
+        <v>-2.2309411831489268E-3</v>
       </c>
       <c r="B14">
-        <v>-8.4853632583836713E-2</v>
+        <v>-8.4853632583836713E-4</v>
       </c>
       <c r="C14">
-        <v>0.23642110160491114</v>
+        <v>2.3642110160491114E-3</v>
       </c>
       <c r="D14">
-        <v>0.40618005976815752</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>4.0618005976815752E-3</v>
+      </c>
+      <c r="K14">
+        <v>0.62919999999999998</v>
+      </c>
+      <c r="M14">
+        <f>_xlfn.COVARIANCE.S(VaR!A2:A16,VaR!A2:A16)</f>
+        <v>3.3785186281425283E-6</v>
+      </c>
+      <c r="N14">
+        <f>_xlfn.COVARIANCE.S(A2:A16,B2:B16)</f>
+        <v>4.9033820307322504E-6</v>
+      </c>
+      <c r="O14">
+        <f>_xlfn.COVARIANCE.S(A2:A16,C2:C16)</f>
+        <v>-2.1900209143939453E-6</v>
+      </c>
+      <c r="P14">
+        <f>_xlfn.COVARIANCE.S(A2:A16,D2:D16)</f>
+        <v>2.3355768481796629E-6</v>
+      </c>
+      <c r="R14">
+        <f>M14*10</f>
+        <v>3.3785186281425285E-5</v>
+      </c>
+      <c r="S14">
+        <f t="shared" ref="S14:S17" si="0">N14*10</f>
+        <v>4.9033820307322506E-5</v>
+      </c>
+      <c r="T14">
+        <f t="shared" ref="T14:T17" si="1">O14*10</f>
+        <v>-2.1900209143939455E-5</v>
+      </c>
+      <c r="U14">
+        <f t="shared" ref="U14:U17" si="2">P14*10</f>
+        <v>2.335576848179663E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>0.1548528448625186</v>
+        <v>1.548528448625186E-3</v>
       </c>
       <c r="B15">
-        <v>-1.1860284194786352</v>
+        <v>-1.1860284194786352E-2</v>
       </c>
       <c r="C15">
-        <v>0.10924025173140173</v>
+        <v>1.0924025173140173E-3</v>
       </c>
       <c r="D15">
-        <v>0.72359447197367643</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>7.2359447197367643E-3</v>
+      </c>
+      <c r="K15">
+        <v>0.62919999999999998</v>
+      </c>
+      <c r="M15">
+        <f>N14</f>
+        <v>4.9033820307322504E-6</v>
+      </c>
+      <c r="N15">
+        <f>_xlfn.COVARIANCE.S(B2:B16,B2:B16)</f>
+        <v>5.8661073104781092E-5</v>
+      </c>
+      <c r="O15">
+        <f>_xlfn.COVARIANCE.S(B2:B16,C2:C16)</f>
+        <v>-2.4756029631188851E-5</v>
+      </c>
+      <c r="P15">
+        <f>_xlfn.COVARIANCE.S(B2:B16,D2:D16)</f>
+        <v>-1.3521944365298043E-5</v>
+      </c>
+      <c r="R15">
+        <f t="shared" ref="R15:R17" si="3">M15*10</f>
+        <v>4.9033820307322506E-5</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>5.8661073104781093E-4</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>-2.4756029631188851E-4</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="2"/>
+        <v>-1.3521944365298044E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>-5.4626568078686155E-2</v>
+        <v>-5.4626568078686155E-4</v>
       </c>
       <c r="B16">
-        <v>-0.56472990478280138</v>
+        <v>-5.6472990478280138E-3</v>
       </c>
       <c r="C16">
-        <v>0.14546828528603228</v>
+        <v>1.4546828528603228E-3</v>
       </c>
       <c r="D16">
-        <v>0.40162611673655313</v>
+        <v>4.0162611673655313E-3</v>
       </c>
       <c r="E16">
         <f>0.7*A16+0.1*B16+0.1*C16+0.1*D16</f>
-        <v>-4.0002147931101906E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-4.0002147931101912E-4</v>
+      </c>
+      <c r="K16">
+        <v>0.62919999999999998</v>
+      </c>
+      <c r="M16">
+        <f>O14</f>
+        <v>-2.1900209143939453E-6</v>
+      </c>
+      <c r="N16">
+        <f>O15</f>
+        <v>-2.4756029631188851E-5</v>
+      </c>
+      <c r="O16">
+        <f>_xlfn.COVARIANCE.S(C2:C16,C2:C16)</f>
+        <v>3.4254195836995235E-5</v>
+      </c>
+      <c r="P16">
+        <f>_xlfn.COVARIANCE.S(C2:C16,D2:D16)</f>
+        <v>2.256633886898129E-5</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="3"/>
+        <v>-2.1900209143939455E-5</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>-2.4756029631188851E-4</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="1"/>
+        <v>3.4254195836995233E-4</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="2"/>
+        <v>2.2566338868981289E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M17">
+        <f>P14</f>
+        <v>2.3355768481796629E-6</v>
+      </c>
+      <c r="N17">
+        <f>P15</f>
+        <v>-1.3521944365298043E-5</v>
+      </c>
+      <c r="O17">
+        <f>P16</f>
+        <v>2.256633886898129E-5</v>
+      </c>
+      <c r="P17">
+        <f>_xlfn.COVARIANCE.S(D2:D16,D2:D16)</f>
+        <v>4.9251467208703908E-5</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="3"/>
+        <v>2.335576848179663E-5</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>-1.3521944365298044E-4</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="1"/>
+        <v>2.2566338868981289E-4</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="2"/>
+        <v>4.9251467208703912E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18">
         <f>_xlfn.STDEV.S(A2:A16)</f>
-        <v>0.1838074706899186</v>
+        <v>1.838074706899186E-3</v>
       </c>
       <c r="B18">
-        <f t="shared" ref="B18:D18" si="0">_xlfn.STDEV.S(B2:B16)</f>
-        <v>0.76590517105436173</v>
+        <f t="shared" ref="B18:D18" si="4">_xlfn.STDEV.S(B2:B16)</f>
+        <v>7.6590517105436153E-3</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
-        <v>0.58527084189283873</v>
+        <f t="shared" si="4"/>
+        <v>5.8527084189283875E-3</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
-        <v>0.70179389573224349</v>
+        <f t="shared" si="4"/>
+        <v>7.0179389573224345E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f>A18*15</f>
+        <v>2.7571120603487789E-2</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19:D19" si="5">B18*15</f>
+        <v>0.11488577565815423</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="5"/>
+        <v>8.779062628392581E-2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="5"/>
+        <v>0.10526908435983652</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f>SUM(A2:A3)</f>
+        <v>2.9818524779312572E-3</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ref="B21:D21" si="6">SUM(B2:B3)</f>
+        <v>4.3450778961506842E-3</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="6"/>
+        <v>4.5133836669428717E-3</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="6"/>
+        <v>-7.1199234359800023E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f>SUM(A4:A5)</f>
+        <v>2.4302444034129955E-4</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22:D22" si="7">SUM(B4:B5)</f>
+        <v>-1.6851516865321159E-2</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="7"/>
+        <v>1.9358714738055838E-3</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="7"/>
+        <v>-3.5527376602204619E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f>SUM(A6:A7)</f>
+        <v>-3.163933823868037E-3</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ref="B23:D23" si="8">SUM(B6:B7)</f>
+        <v>-1.2013821605389552E-2</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="8"/>
+        <v>1.4937655667150107E-2</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="8"/>
+        <v>-1.9182535024842018E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f>SUM(A8:A9)</f>
+        <v>-1.8284042652760846E-4</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24:D24" si="9">SUM(B8:B9)</f>
+        <v>-5.4069302975605638E-3</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="9"/>
+        <v>3.2819635489875765E-3</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="9"/>
+        <v>4.0219894601754014E-3</v>
+      </c>
+      <c r="I24">
+        <v>6.2919999999999998</v>
+      </c>
+      <c r="J24">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="K24">
+        <f t="array" ref="K24">MMULT(MMULT(TRANSPOSE(K13:K16),M14:P17),K13:K16)</f>
+        <v>1.3736524868591829E-4</v>
+      </c>
+      <c r="L24">
+        <f>K24*J24*I24</f>
+        <v>2.0051809757777707E-3</v>
+      </c>
+      <c r="M24">
+        <f>L24*100</f>
+        <v>0.20051809757777708</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f>SUM(A10:A11)</f>
+        <v>-7.6193378832245529E-5</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25:D25" si="10">SUM(B10:B11)</f>
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="10"/>
+        <v>-1.2705248901127453E-2</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="10"/>
+        <v>-1.7051316800197558E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f>SUM(A12:A13)</f>
+        <v>5.2437708027843755E-3</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26:D26" si="11">SUM(B12:B13)</f>
+        <v>-8.1656092176052297E-3</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="11"/>
+        <v>1.4076693219269298E-3</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="11"/>
+        <v>-4.7246966221274889E-3</v>
+      </c>
+      <c r="J26">
+        <f>_xlfn.NORM.INV(0.99,0,1)</f>
+        <v>2.3263478740408408</v>
+      </c>
+      <c r="M26">
+        <f>M24/6.292</f>
+        <v>3.1868737695133043E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f>SUM(A14:A15)</f>
+        <v>-6.8241273452374074E-4</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27:D27" si="12">SUM(B14:B15)</f>
+        <v>-1.270882052062472E-2</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="12"/>
+        <v>3.4566135333631287E-3</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="12"/>
+        <v>1.129774531741834E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f>_xlfn.STDEV.S(A21:A27)</f>
+        <v>2.7154897926485546E-3</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29:D29" si="13">_xlfn.STDEV.S(B21:B27)</f>
+        <v>7.4824799898941929E-3</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="13"/>
+        <v>8.0924044693480527E-3</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="13"/>
+        <v>8.8699175470350992E-3</v>
       </c>
     </row>
   </sheetData>
